--- a/workbooks/ccssmath.xlsx
+++ b/workbooks/ccssmath.xlsx
@@ -184,7 +184,7 @@
     <t>Operations and Algebraic Thinking</t>
   </si>
   <si>
-    <t>Represent addition and subtraction with objects, fingers, mental images, drawings1, sounds (e.g., claps), acting out situations, verbal explanations, expressions, or equations.</t>
+    <t>Represent addition and subtraction with objects, fingers, mental images, drawings, sounds (e.g., claps), acting out situations, verbal explanations, expressions, or equations.</t>
   </si>
   <si>
     <t>CCSS.MATH.CONTENT.K.OA.A.2</t>
@@ -3514,6 +3514,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.29"/>
+    <col customWidth="1" min="2" max="2" width="35.0"/>
+    <col customWidth="1" min="3" max="3" width="11.43"/>
+    <col customWidth="1" min="4" max="4" width="75.14"/>
+    <col customWidth="1" min="5" max="5" width="21.14"/>
+    <col customWidth="1" min="6" max="6" width="45.29"/>
+    <col customWidth="1" min="7" max="7" width="13.57"/>
+    <col customWidth="1" min="8" max="8" width="632.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
